--- a/biology/Botanique/Tulipa_turkestanica/Tulipa_turkestanica.xlsx
+++ b/biology/Botanique/Tulipa_turkestanica/Tulipa_turkestanica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tulipe du Turkestan
 Tulipa turkestanica, la Tulipe du Turkestan, est une espèce du tulipe native de l'Asie centrale, particulièrement de Tien Shan, les montagnes Pamir et le nord-est de la Chine. Elle croît sur les pentes rocheuses des montagnes ou sur les bords des cours d'eau à une altitude de 1800 à 2500 mètres.
@@ -513,7 +525,9 @@
           <t>Culture et usages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tulipa turkestanica est une plante ornementale assez populaire dans les pays au climat tempéré-froid. Elle est facile à cultiver dans les lieux bien drainés et ensoleillés. On la cultive habituellement dans la rocaille. On ne doit pas l'irriguer durant l'été.
 </t>
@@ -544,7 +558,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(es) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en espagnol intitulé « Tulipa turkestanica » (voir la liste des auteurs).</t>
         </is>
